--- a/.test/ngs/231121_M02245_0129_000000000-DMNH2/231121_extended_sample_sheet.xlsx
+++ b/.test/ngs/231121_M02245_0129_000000000-DMNH2/231121_extended_sample_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonas/NAS/samples/smallseq/231121_M02245/231121_M02245_0129_000000000-DMNH2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonasj/Documents/Projects/git/parts-seq/.test/ngs/231121_M02245_0129_000000000-DMNH2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20580587-1648-4F48-99B0-68D5E179B360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D151DD5F-3414-7648-9D9B-0E7E73BD5E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{89D7250D-3031-744F-86EA-F02C8FEC9E50}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="34460" windowHeight="16460" xr2:uid="{89D7250D-3031-744F-86EA-F02C8FEC9E50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>sample_id</t>
   </si>
@@ -84,9 +84,6 @@
     <t>seq_run_id</t>
   </si>
   <si>
-    <t>Dominykas Murza</t>
-  </si>
-  <si>
     <t>21_SMAL_SJ</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>lab_freezer_4; shelf_1</t>
-  </si>
-  <si>
     <t>21_SMALL_SJ_18</t>
   </si>
   <si>
@@ -114,15 +108,6 @@
     <t>231121_M02245_0129_000000000-DMNH2</t>
   </si>
   <si>
-    <t>Hairpin</t>
-  </si>
-  <si>
-    <t>App_lambda</t>
-  </si>
-  <si>
-    <t>1K_cells_2uM_blocker</t>
-  </si>
-  <si>
     <t>TCATTC</t>
   </si>
   <si>
@@ -130,6 +115,15 @@
   </si>
   <si>
     <t>GTCCAA</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -199,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +233,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -345,7 +339,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -498,7 +492,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,22 +559,22 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -589,42 +583,42 @@
         <v>3000</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -633,42 +627,42 @@
         <v>3000</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
         <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -677,22 +671,22 @@
         <v>1000</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
